--- a/data.xlsx
+++ b/data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\excel-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43A9E9FF-3960-494E-976C-69438A0220E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70729856-0294-4A05-97CB-1B69351A8D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D1A8538C-CDED-4D59-A79B-F6DAB1A86006}"/>
+    <workbookView xWindow="5970" yWindow="3945" windowWidth="18000" windowHeight="9360" xr2:uid="{D1A8538C-CDED-4D59-A79B-F6DAB1A86006}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$I$399</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet2!$A$1:$I$399</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,8 +46,30 @@
 </connections>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="414">
   <si>
     <t>mpg</t>
   </si>
@@ -1270,6 +1293,24 @@
   </si>
   <si>
     <t>chevy s-10</t>
+  </si>
+  <si>
+    <t>https://w1.weather.gov/xml/current_obs/KLGA.xml</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Observation Time</t>
+  </si>
+  <si>
+    <t>Station ID</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
@@ -1305,9 +1346,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1664,10 +1708,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA2D5C9-B7CF-4B7B-ABA8-06B5EE4B32FE}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="str">
+        <f>_xlfn.WEBSERVICE(A1)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="ISO-8859-1"?&gt; _x000D_
+&lt;?xml-stylesheet href="latest_ob.xsl" type="text/xsl"?&gt;_x000D_
+&lt;current_observation version="1.0"_x000D_
+	 xmlns:xsd="http://www.w3.org/2001/XMLSchema"_x000D_
+	 xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"_x000D_
+	 xsi:noNamespaceSchemaLocation="http://www.weather.gov/view/current_observation.xsd"&gt;_x000D_
+	&lt;credit&gt;NOAA's National Weather Service&lt;/credit&gt;_x000D_
+	&lt;credit_URL&gt;http://weather.gov/&lt;/credit_URL&gt;_x000D_
+	&lt;image&gt;_x000D_
+		&lt;url&gt;http://weather.gov/images/xml_logo.gif&lt;/url&gt;_x000D_
+		&lt;title&gt;NOAA's National Weather Service&lt;/title&gt;_x000D_
+		&lt;link&gt;http://weather.gov&lt;/link&gt;_x000D_
+	&lt;/image&gt;_x000D_
+	&lt;suggested_pickup&gt;15 minutes after the hour&lt;/suggested_pickup&gt;_x000D_
+	&lt;suggested_pickup_period&gt;60&lt;/suggested_pickup_period&gt;
+	&lt;location&gt;New York, La Guardia Airport, NY&lt;/location&gt;
+	&lt;station_id&gt;KLGA&lt;/station_id&gt;
+	&lt;latitude&gt;40.77917&lt;/latitude&gt;
+	&lt;longitude&gt;-73.88&lt;/longitude&gt;
+	&lt;observation_time&gt;Last Updated on Dec 7 2020, 7:51 pm EST&lt;/observation_time&gt;_x000D_
+        &lt;observation_time_rfc822&gt;Mon, 07 Dec 2020 19:51:00 -0500&lt;/observation_time_rfc822&gt;
+	&lt;weather&gt;Mostly Cloudy&lt;/weather&gt;
+	&lt;temperature_string&gt;38.0 F (3.3 C)&lt;/temperature_string&gt;_x000D_
+	&lt;temp_f&gt;38.0&lt;/temp_f&gt;_x000D_
+	&lt;temp_c&gt;3.3&lt;/temp_c&gt;
+	&lt;relative_humidity&gt;48&lt;/relative_humidity&gt;
+	&lt;wind_string&gt;Northwest at 12.7 MPH (11 KT)&lt;/wind_string&gt;
+	&lt;wind_dir&gt;Northwest&lt;/wind_dir&gt;
+	&lt;wind_degrees&gt;330&lt;/wind_degrees&gt;
+	&lt;wind_mph&gt;12.7&lt;/wind_mph&gt;
+	&lt;wind_kt&gt;11&lt;/wind_kt&gt;
+	&lt;pressure_string&gt;1006.1 mb&lt;/pressure_string&gt;
+	&lt;pressure_mb&gt;1006.1&lt;/pressure_mb&gt;
+	&lt;pressure_in&gt;29.71&lt;/pressure_in&gt;
+	&lt;dewpoint_string&gt;19.9 F (-6.7 C)&lt;/dewpoint_string&gt;_x000D_
+	&lt;dewpoint_f&gt;19.9&lt;/dewpoint_f&gt;_x000D_
+	&lt;dewpoint_c&gt;-6.7&lt;/dewpoint_c&gt;
+	&lt;windchill_string&gt;30 F (-1 C)&lt;/windchill_string&gt;_x000D_
+      	&lt;windchill_f&gt;30&lt;/windchill_f&gt;_x000D_
+      	&lt;windchill_c&gt;-1&lt;/windchill_c&gt;
+	&lt;visibility_mi&gt;10.00&lt;/visibility_mi&gt;
+ 	&lt;icon_url_base&gt;http://forecast.weather.gov/images/wtf/small/&lt;/icon_url_base&gt;
+	&lt;two_day_history_url&gt;http://www.weather.gov/data/obhistory/KLGA.html&lt;/two_day_history_url&gt;
+	&lt;icon_url_name&gt;nbkn.png&lt;/icon_url_name&gt;
+	&lt;ob_url&gt;http://www.weather.gov/data/METAR/KLGA.1.txt&lt;/ob_url&gt;
+	&lt;disclaimer_url&gt;http://weather.gov/disclaimer.html&lt;/disclaimer_url&gt;_x000D_
+	&lt;copyright_url&gt;http://weather.gov/disclaimer.html&lt;/copyright_url&gt;_x000D_
+	&lt;privacy_policy_url&gt;http://weather.gov/notice.html&lt;/privacy_policy_url&gt;_x000D_
+&lt;/current_observation&gt;
+</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3">_xlfn.FILTERXML(A2, "//location")</f>
+        <v>New York, La Guardia Airport, NY</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4" t="str" cm="1">
+        <f t="array" ref="B4">_xlfn.FILTERXML(A2, "//observation_time")</f>
+        <v>Last Updated on Dec 7 2020, 7:51 pm EST</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" t="str" cm="1">
+        <f t="array" ref="B5">_xlfn.FILTERXML(A2, "//station_id")</f>
+        <v>KLGA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" cm="1">
+        <f t="array" ref="B6">_xlfn.FILTERXML(A2, "//latitude")</f>
+        <v>40.779170000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B7" cm="1">
+        <f t="array" ref="B7">_xlfn.FILTERXML(A2, "//longitude")</f>
+        <v>-73.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780BC3F0-12F0-481D-9E00-C0DBE6397743}">
   <dimension ref="A1:I399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13261,8 +13428,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA2D5C9-B7CF-4B7B-ABA8-06B5EE4B32FE}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889C163A-F25D-4391-AF4F-DFE2CD6F427C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
